--- a/src/analysis_examples/circadipy/results_circadipy/square_01/cosinor_per_day_fixed_period_7_square_01_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_01/cosinor_per_day_fixed_period_7_square_01_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>25.99000000000062</v>
+        <v>25.65000000000057</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>3.393038504817536e-05</v>
+        <v>1.725445188949237e-07</v>
       </c>
       <c r="I2" t="n">
-        <v>3.393038504817536e-05</v>
+        <v>1.725445188949237e-07</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>52.02253486886002</v>
+        <v>61.2940079136619</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[23.127174684606416, 80.91789505311363]</t>
+          <t>[40.17454029306674, 82.41347553425706]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.0007301820309495444</v>
+        <v>5.293142226747705e-07</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0007301820309495444</v>
+        <v>5.293142226747705e-07</v>
       </c>
       <c r="P2" t="n">
-        <v>2.056658253701427</v>
+        <v>1.628973968528041</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[1.4906055233248878, 2.6227109840779654]</t>
+          <t>[1.2012896833546556, 2.0566582537014266]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>3.449353247475528e-09</v>
+        <v>1.041339015017684e-09</v>
       </c>
       <c r="S2" t="n">
-        <v>3.449353247475528e-09</v>
+        <v>1.041339015017684e-09</v>
       </c>
       <c r="T2" t="n">
-        <v>61.16424211254704</v>
+        <v>59.96031348592786</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[46.03180441436255, 76.29667981073152]</t>
+          <t>[46.49171961777904, 73.42890735407667]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>2.151934186400695e-10</v>
+        <v>1.412958638979944e-11</v>
       </c>
       <c r="W2" t="n">
-        <v>2.151934186400695e-10</v>
+        <v>1.412958638979944e-11</v>
       </c>
       <c r="X2" t="n">
-        <v>17.48276276276318</v>
+        <v>19.00000000000042</v>
       </c>
       <c r="Y2" t="n">
-        <v>15.14132132132168</v>
+        <v>17.25405405405444</v>
       </c>
       <c r="Z2" t="n">
-        <v>19.82420420420468</v>
+        <v>20.74594594594641</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>25.99000000000062</v>
+        <v>25.65000000000057</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>6.796013961585246e-07</v>
+        <v>0.0004014341337060801</v>
       </c>
       <c r="I3" t="n">
-        <v>6.796013961585246e-07</v>
+        <v>0.0004014341337060801</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>64.04614803367869</v>
+        <v>48.07577717778288</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[36.93783160577746, 91.15446446157992]</t>
+          <t>[19.15966678983395, 76.9918875657318]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>2.046220166151969e-05</v>
+        <v>0.001649566000748948</v>
       </c>
       <c r="O3" t="n">
-        <v>2.046220166151969e-05</v>
+        <v>0.001649566000748948</v>
       </c>
       <c r="P3" t="n">
-        <v>1.201289683354656</v>
+        <v>1.239026532046425</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[0.735868549489501, 1.666710817219812]</t>
+          <t>[0.5471843060306547, 1.9308687580621946]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>4.736064979526944e-06</v>
+        <v>0.0007729581409410269</v>
       </c>
       <c r="S3" t="n">
-        <v>4.736064979526944e-06</v>
+        <v>0.0007729581409410269</v>
       </c>
       <c r="T3" t="n">
-        <v>58.7918118925982</v>
+        <v>65.68526379216576</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[44.105153742441686, 73.47847004275471]</t>
+          <t>[49.61156307209633, 81.75896451223518]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>2.795177422854067e-10</v>
+        <v>1.595186205349819e-10</v>
       </c>
       <c r="W3" t="n">
-        <v>2.795177422854067e-10</v>
+        <v>1.595186205349819e-10</v>
       </c>
       <c r="X3" t="n">
-        <v>21.02094094094144</v>
+        <v>20.59189189189235</v>
       </c>
       <c r="Y3" t="n">
-        <v>19.09575575575621</v>
+        <v>17.76756756756797</v>
       </c>
       <c r="Z3" t="n">
-        <v>22.94612612612668</v>
+        <v>23.41621621621674</v>
       </c>
     </row>
     <row r="4">
@@ -737,7 +737,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>25.99000000000062</v>
+        <v>25.65000000000057</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0661058595283992</v>
+        <v>0.0005503476294157483</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0661058595283992</v>
+        <v>0.0005503476294157483</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>29.27113490065281</v>
+        <v>48.56690102763248</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[-0.8830745302053487, 59.42534433151097]</t>
+          <t>[16.56791309752581, 80.56588895773916]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.05679694082353981</v>
+        <v>0.003755120077692853</v>
       </c>
       <c r="O4" t="n">
-        <v>0.05679694082353981</v>
+        <v>0.003755120077692853</v>
       </c>
       <c r="P4" t="n">
-        <v>0.6100790538502707</v>
+        <v>0.7736053981812709</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[-1.7610529389492333, 2.9812110466497748]</t>
+          <t>[0.1949737182408091, 1.3522370781217328]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.6068452478468171</v>
+        <v>0.009918379043219128</v>
       </c>
       <c r="S4" t="n">
-        <v>0.6068452478468171</v>
+        <v>0.009918379043219128</v>
       </c>
       <c r="T4" t="n">
-        <v>62.08289351251283</v>
+        <v>59.24815731406017</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[45.311142705750555, 78.8546443192751]</t>
+          <t>[43.13370901067552, 75.36260561744483]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>2.162149570494876e-09</v>
+        <v>2.563619316831023e-09</v>
       </c>
       <c r="W4" t="n">
-        <v>2.162149570494876e-09</v>
+        <v>2.563619316831023e-09</v>
       </c>
       <c r="X4" t="n">
-        <v>23.46644644644701</v>
+        <v>22.49189189189239</v>
       </c>
       <c r="Y4" t="n">
-        <v>13.65840840840873</v>
+        <v>20.12972972973018</v>
       </c>
       <c r="Z4" t="n">
-        <v>33.27448448448528</v>
+        <v>24.8540540540546</v>
       </c>
     </row>
     <row r="5">
@@ -823,7 +823,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>25.99000000000062</v>
+        <v>25.65000000000057</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>7.723712203144828e-08</v>
+        <v>6.865853916959708e-06</v>
       </c>
       <c r="I5" t="n">
-        <v>7.723712203144828e-08</v>
+        <v>6.865853916959708e-06</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>55.42032477682512</v>
+        <v>54.01918577236902</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[34.20289562473796, 76.63775392891228]</t>
+          <t>[30.064448053591647, 77.9739234911464]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>3.841382036462448e-06</v>
+        <v>4.154991515914475e-05</v>
       </c>
       <c r="O5" t="n">
-        <v>3.841382036462448e-06</v>
+        <v>4.154991515914475e-05</v>
       </c>
       <c r="P5" t="n">
-        <v>0.5220264069028087</v>
+        <v>0.4591316590831935</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[0.1320789704211922, 0.9119738433844251]</t>
+          <t>[-0.03144737390980712, 0.9497106920761942]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.009828569176704605</v>
+        <v>0.06589800617748121</v>
       </c>
       <c r="S5" t="n">
-        <v>0.009828569176704605</v>
+        <v>0.06589800617748121</v>
       </c>
       <c r="T5" t="n">
-        <v>61.3750826844325</v>
+        <v>68.51422907107838</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[50.41942321577696, 72.33074215308804]</t>
+          <t>[55.211541096600634, 81.81691704555612]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>1.043609643147647e-14</v>
+        <v>1.62980740014973e-13</v>
       </c>
       <c r="W5" t="n">
-        <v>1.043609643147647e-14</v>
+        <v>1.62980740014973e-13</v>
       </c>
       <c r="X5" t="n">
-        <v>23.83067067067124</v>
+        <v>23.7756756756762</v>
       </c>
       <c r="Y5" t="n">
-        <v>22.21767767767821</v>
+        <v>21.77297297297346</v>
       </c>
       <c r="Z5" t="n">
-        <v>25.44366366366427</v>
+        <v>25.77837837837895</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>25.99000000000062</v>
+        <v>25.65000000000057</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>5.493507114717744e-05</v>
+        <v>6.269233972511223e-06</v>
       </c>
       <c r="I6" t="n">
-        <v>5.493507114717744e-05</v>
+        <v>6.269233972511223e-06</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>49.37630048220603</v>
+        <v>56.36444723531097</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[26.40513501306485, 72.34746595134722]</t>
+          <t>[33.237171055260475, 79.49172341536146]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>8.24771008876013e-05</v>
+        <v>1.246138708665967e-05</v>
       </c>
       <c r="O6" t="n">
-        <v>8.24771008876013e-05</v>
+        <v>1.246138708665967e-05</v>
       </c>
       <c r="P6" t="n">
-        <v>0.06918422260157797</v>
+        <v>0.1195000208572692</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-0.49686850777495994, 0.6352369529781159]</t>
+          <t>[-0.3333421634439624, 0.5723422051585008]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.8066714658752141</v>
+        <v>0.5976867489866926</v>
       </c>
       <c r="S6" t="n">
-        <v>0.8066714658752141</v>
+        <v>0.5976867489866926</v>
       </c>
       <c r="T6" t="n">
-        <v>62.53406384366182</v>
+        <v>70.53758820156436</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[48.886641816407646, 76.18148587091599]</t>
+          <t>[56.733944381649806, 84.34123202147892]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>6.038503030936226e-12</v>
+        <v>2.093880624443045e-13</v>
       </c>
       <c r="W6" t="n">
-        <v>6.038503030936226e-12</v>
+        <v>2.093880624443045e-13</v>
       </c>
       <c r="X6" t="n">
-        <v>25.70382382382444</v>
+        <v>25.16216216216272</v>
       </c>
       <c r="Y6" t="n">
-        <v>23.36238238238294</v>
+        <v>23.31351351351403</v>
       </c>
       <c r="Z6" t="n">
-        <v>28.04526526526593</v>
+        <v>27.01081081081141</v>
       </c>
     </row>
     <row r="7">
@@ -995,7 +995,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>25.99000000000062</v>
+        <v>25.65000000000057</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>4.025712412758509e-06</v>
+        <v>0.0002606650729047866</v>
       </c>
       <c r="I7" t="n">
-        <v>4.025712412758509e-06</v>
+        <v>0.0002606650729047866</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>48.41112005791913</v>
+        <v>52.84312010433631</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[24.60016893871571, 72.22207117712254]</t>
+          <t>[21.6244183688446, 84.06182183982801]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.0001733655759108554</v>
+        <v>0.001384233542160329</v>
       </c>
       <c r="O7" t="n">
-        <v>0.0001733655759108554</v>
+        <v>0.001384233542160329</v>
       </c>
       <c r="P7" t="n">
-        <v>-0.6792632764518469</v>
+        <v>-0.4654211338651546</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-1.1572633598809245, -0.2012631930227693]</t>
+          <t>[-1.0943686120613094, 0.16352634433100022]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.006364955793233262</v>
+        <v>0.1430861536172205</v>
       </c>
       <c r="S7" t="n">
-        <v>0.006364955793233262</v>
+        <v>0.1430861536172205</v>
       </c>
       <c r="T7" t="n">
-        <v>53.96779568127987</v>
+        <v>64.56890744713847</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[41.75200361706928, 66.18358774549047]</t>
+          <t>[47.75007084521431, 81.38774404906263]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>1.766142787573699e-11</v>
+        <v>8.477660795591646e-10</v>
       </c>
       <c r="W7" t="n">
-        <v>1.766142787573699e-11</v>
+        <v>8.477660795591646e-10</v>
       </c>
       <c r="X7" t="n">
-        <v>2.809729729729796</v>
+        <v>1.900000000000041</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.832512512512531</v>
+        <v>-0.6675675675675836</v>
       </c>
       <c r="Z7" t="n">
-        <v>4.78694694694706</v>
+        <v>4.467567567567666</v>
       </c>
     </row>
     <row r="8">
@@ -1081,7 +1081,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>25.39000000000053</v>
+        <v>25.8300000000006</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.003864573748260658</v>
+        <v>0.00147592980018918</v>
       </c>
       <c r="I8" t="n">
-        <v>0.003864573748260658</v>
+        <v>0.00147592980018918</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>45.62630156906291</v>
+        <v>46.0041110321439</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[13.774757603656624, 77.4778455344692]</t>
+          <t>[14.282453690863036, 77.72576837342477]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.005986335941269738</v>
+        <v>0.005438269277630026</v>
       </c>
       <c r="O8" t="n">
-        <v>0.005986335941269738</v>
+        <v>0.005438269277630026</v>
       </c>
       <c r="P8" t="n">
-        <v>-1.396263401595464</v>
+        <v>-0.5283158816847697</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-2.3396846188896956, -0.452842184301232]</t>
+          <t>[-1.2453160068283866, 0.18868424345884716]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.004624322870022013</v>
+        <v>0.1447599590504673</v>
       </c>
       <c r="S8" t="n">
-        <v>0.004624322870022013</v>
+        <v>0.1447599590504673</v>
       </c>
       <c r="T8" t="n">
-        <v>71.92301888691476</v>
+        <v>70.60781175174131</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[53.04906891167255, 90.79696886215697]</t>
+          <t>[53.671342438437534, 87.54428106504508]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>1.028113150169929e-09</v>
+        <v>9.18567444330165e-11</v>
       </c>
       <c r="W8" t="n">
-        <v>1.028113150169929e-09</v>
+        <v>9.18567444330165e-11</v>
       </c>
       <c r="X8" t="n">
-        <v>5.64222222222234</v>
+        <v>2.171891891891942</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.82990990990995</v>
+        <v>-0.775675675675696</v>
       </c>
       <c r="Z8" t="n">
-        <v>9.45453453453473</v>
+        <v>5.119459459459581</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>25.39000000000053</v>
+        <v>25.8300000000006</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>1.384203991916522e-05</v>
+        <v>0.002620446759960982</v>
       </c>
       <c r="I9" t="n">
-        <v>1.384203991916522e-05</v>
+        <v>0.002620446759960982</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>49.36437903494163</v>
+        <v>46.70352082680847</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[25.79602911747726, 72.932728952406]</t>
+          <t>[11.21843317652629, 82.18860847709065]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.0001173664945377517</v>
+        <v>0.01104375419169523</v>
       </c>
       <c r="O9" t="n">
-        <v>0.0001173664945377517</v>
+        <v>0.01104375419169523</v>
       </c>
       <c r="P9" t="n">
-        <v>-1.081789662497386</v>
+        <v>-1.044052813805617</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[-1.597526594618234, -0.5660527303765388]</t>
+          <t>[-1.8113687372049254, -0.2767368904063092]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.0001151075188807749</v>
+        <v>0.008765952707644686</v>
       </c>
       <c r="S9" t="n">
-        <v>0.0001151075188807749</v>
+        <v>0.008765952707644686</v>
       </c>
       <c r="T9" t="n">
-        <v>63.98203945366561</v>
+        <v>64.75824925206408</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[50.57871409624238, 77.38536481108885]</t>
+          <t>[46.06209111567657, 83.45440738845159]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>1.755928735747148e-12</v>
+        <v>1.104924418626752e-08</v>
       </c>
       <c r="W9" t="n">
-        <v>1.755928735747148e-12</v>
+        <v>1.104924418626752e-08</v>
       </c>
       <c r="X9" t="n">
-        <v>4.371451451451545</v>
+        <v>4.292072072072173</v>
       </c>
       <c r="Y9" t="n">
-        <v>2.287387387387435</v>
+        <v>1.137657657657689</v>
       </c>
       <c r="Z9" t="n">
-        <v>6.455515515515655</v>
+        <v>7.446486486486657</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>25.39000000000053</v>
+        <v>25.8300000000006</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.00915565033547272</v>
+        <v>3.746845155250256e-07</v>
       </c>
       <c r="I10" t="n">
-        <v>0.00915565033547272</v>
+        <v>3.746845155250256e-07</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>38.46249136550466</v>
+        <v>58.01419727288999</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[7.892064938169057, 69.03291779284027]</t>
+          <t>[36.26894501970554, 79.75944952607445]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.01482515017814223</v>
+        <v>2.628820495065298e-06</v>
       </c>
       <c r="O10" t="n">
-        <v>0.01482515017814223</v>
+        <v>2.628820495065298e-06</v>
       </c>
       <c r="P10" t="n">
-        <v>-1.773631888513156</v>
+        <v>-1.42142130072331</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[-2.8428426014466197, -0.704421175579693]</t>
+          <t>[-1.8491055858966954, -0.9937370155499243]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>0.001686058829377224</v>
+        <v>2.90178714390521e-08</v>
       </c>
       <c r="S10" t="n">
-        <v>0.001686058829377224</v>
+        <v>2.90178714390521e-08</v>
       </c>
       <c r="T10" t="n">
-        <v>66.05150140651159</v>
+        <v>53.06029745944171</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[48.75792590873877, 83.34507690428441]</t>
+          <t>[39.765950347090794, 66.35464457179263]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>9.689218316566439e-10</v>
+        <v>3.028282069550414e-10</v>
       </c>
       <c r="W10" t="n">
-        <v>9.689218316566439e-10</v>
+        <v>3.028282069550414e-10</v>
       </c>
       <c r="X10" t="n">
-        <v>7.167147147147297</v>
+        <v>5.843423423423559</v>
       </c>
       <c r="Y10" t="n">
-        <v>2.846526526526585</v>
+        <v>4.085225225225319</v>
       </c>
       <c r="Z10" t="n">
-        <v>11.48776776776801</v>
+        <v>7.601621621621799</v>
       </c>
     </row>
     <row r="11">
@@ -1355,69 +1355,69 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>25.39000000000053</v>
+        <v>25.8300000000006</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>9.966316780873896e-05</v>
+        <v>0.03384494813651173</v>
       </c>
       <c r="I11" t="n">
-        <v>9.966316780873896e-05</v>
+        <v>0.03384494813651173</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>49.69002945277309</v>
+        <v>23.30666873605635</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[24.584823861990145, 74.79523504355603]</t>
+          <t>[1.673048858897758, 44.94028861321494]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.0002433020471697134</v>
+        <v>0.03533578663487158</v>
       </c>
       <c r="O11" t="n">
-        <v>0.0002433020471697134</v>
+        <v>0.03533578663487158</v>
       </c>
       <c r="P11" t="n">
-        <v>-1.434000250287233</v>
+        <v>-1.773631888513156</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[-2.0755266780473107, -0.792473822527155]</t>
+          <t>[-3.107000542289004, -0.44026323473730855]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>4.727549788952068e-05</v>
+        <v>0.01027221178364379</v>
       </c>
       <c r="S11" t="n">
-        <v>4.727549788952068e-05</v>
+        <v>0.01027221178364379</v>
       </c>
       <c r="T11" t="n">
-        <v>62.53186601130422</v>
+        <v>51.38300647005065</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[47.2615393731634, 77.80219264944505]</t>
+          <t>[38.80202004840677, 63.963992891694524]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>1.506934577122365e-10</v>
+        <v>1.6202705843682e-10</v>
       </c>
       <c r="W11" t="n">
-        <v>1.506934577122365e-10</v>
+        <v>1.6202705843682e-10</v>
       </c>
       <c r="X11" t="n">
-        <v>5.794714714714836</v>
+        <v>7.291351351351519</v>
       </c>
       <c r="Y11" t="n">
-        <v>3.202342342342409</v>
+        <v>1.809909909909953</v>
       </c>
       <c r="Z11" t="n">
-        <v>8.387087087087263</v>
+        <v>12.77279279279309</v>
       </c>
     </row>
     <row r="12">
@@ -1441,69 +1441,69 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>25.39000000000053</v>
+        <v>25.8300000000006</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0004899174325287969</v>
+        <v>0.0004755474722017983</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0004899174325287969</v>
+        <v>0.0004755474722017983</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>49.65664550688083</v>
+        <v>47.72923137970774</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[17.852087643213437, 81.46120337054822]</t>
+          <t>[16.898474416660335, 78.55998834275515]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>0.002943908974239573</v>
+        <v>0.00317052415428809</v>
       </c>
       <c r="O12" t="n">
-        <v>0.002943908974239573</v>
+        <v>0.00317052415428809</v>
       </c>
       <c r="P12" t="n">
-        <v>-2.226474072814387</v>
+        <v>-2.352263568453619</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[-2.817684702318773, -1.6352634433100008]</t>
+          <t>[-2.9308952483940818, -1.7736318885131563]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>1.394174775626311e-09</v>
+        <v>1.840192442870148e-10</v>
       </c>
       <c r="S12" t="n">
-        <v>1.394174775626311e-09</v>
+        <v>1.840192442870148e-10</v>
       </c>
       <c r="T12" t="n">
-        <v>62.90284175699411</v>
+        <v>59.89617793180389</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[46.37959040979254, 79.42609310419569]</t>
+          <t>[44.28405853481361, 75.50829732879417]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>1.054844878112249e-09</v>
+        <v>8.626646064158194e-10</v>
       </c>
       <c r="W12" t="n">
-        <v>1.054844878112249e-09</v>
+        <v>8.626646064158194e-10</v>
       </c>
       <c r="X12" t="n">
-        <v>8.997057057057241</v>
+        <v>9.670090090090316</v>
       </c>
       <c r="Y12" t="n">
-        <v>6.608008008008139</v>
+        <v>7.291351351351521</v>
       </c>
       <c r="Z12" t="n">
-        <v>11.38610610610634</v>
+        <v>12.04882882882911</v>
       </c>
     </row>
     <row r="13">
@@ -1527,69 +1527,69 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>25.39000000000053</v>
+        <v>25.8300000000006</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0002394235237476172</v>
+        <v>0.001533953094238982</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0002394235237476172</v>
+        <v>0.001533953094238982</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>49.04051770878329</v>
+        <v>44.22668731936476</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[21.016906952930114, 77.06412846463647]</t>
+          <t>[15.48771016550782, 72.9656644732217]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>0.0009871827068139716</v>
+        <v>0.003337961168694115</v>
       </c>
       <c r="O13" t="n">
-        <v>0.0009871827068139716</v>
+        <v>0.003337961168694115</v>
       </c>
       <c r="P13" t="n">
-        <v>-2.80510575275485</v>
+        <v>-2.729632055371312</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[-3.421474281387081, -2.1887372241226193]</t>
+          <t>[-3.4466321805149276, -2.0126319302276956]</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>7.391864897954292e-12</v>
+        <v>1.054208720319139e-09</v>
       </c>
       <c r="S13" t="n">
-        <v>7.391864897954292e-12</v>
+        <v>1.054208720319139e-09</v>
       </c>
       <c r="T13" t="n">
-        <v>55.12289210609146</v>
+        <v>69.78581453209748</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[40.023845900203874, 70.22193831197905]</t>
+          <t>[54.134422828051555, 85.4372062361434]</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>3.061650266644733e-09</v>
+        <v>1.35047528715404e-11</v>
       </c>
       <c r="W13" t="n">
-        <v>3.061650266644733e-09</v>
+        <v>1.35047528715404e-11</v>
       </c>
       <c r="X13" t="n">
-        <v>11.33527527527551</v>
+        <v>11.2214414414417</v>
       </c>
       <c r="Y13" t="n">
-        <v>8.844564564564752</v>
+        <v>8.273873873874066</v>
       </c>
       <c r="Z13" t="n">
-        <v>13.82598598598627</v>
+        <v>14.16900900900934</v>
       </c>
     </row>
     <row r="14">
@@ -1613,69 +1613,69 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>25.39000000000053</v>
+        <v>25.8300000000006</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>3.4855409311918e-05</v>
+        <v>0.001111014688560452</v>
       </c>
       <c r="I14" t="n">
-        <v>3.4855409311918e-05</v>
+        <v>0.001111014688560452</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>54.60731444375687</v>
+        <v>43.10029372547545</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[29.822955838726628, 79.39167304878711]</t>
+          <t>[18.12099398928376, 68.07959346166713]</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>5.822542726940938e-05</v>
+        <v>0.001141638123621336</v>
       </c>
       <c r="O14" t="n">
-        <v>5.822542726940938e-05</v>
+        <v>0.001141638123621336</v>
       </c>
       <c r="P14" t="n">
-        <v>3.075553168379197</v>
+        <v>3.037816319687427</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[2.534658337130504, 3.6164479996278893]</t>
+          <t>[2.3208161945438106, 3.7548164448310444]</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>6.217248937900877e-15</v>
+        <v>5.844591477455197e-11</v>
       </c>
       <c r="S14" t="n">
-        <v>6.217248937900877e-15</v>
+        <v>5.844591477455197e-11</v>
       </c>
       <c r="T14" t="n">
-        <v>58.81944577513798</v>
+        <v>59.85572443960125</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[43.94892418201144, 73.68996736826452]</t>
+          <t>[44.85198693981965, 74.85946193938285]</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>3.854632169009164e-10</v>
+        <v>3.065359077680796e-10</v>
       </c>
       <c r="W14" t="n">
-        <v>3.854632169009164e-10</v>
+        <v>3.065359077680796e-10</v>
       </c>
       <c r="X14" t="n">
-        <v>12.96186186186213</v>
+        <v>13.34162162162193</v>
       </c>
       <c r="Y14" t="n">
-        <v>10.77613613613637</v>
+        <v>10.39405405405429</v>
       </c>
       <c r="Z14" t="n">
-        <v>15.1475875875879</v>
+        <v>16.28918918918957</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/square_01/cosinor_per_day_fixed_period_7_square_01_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_01/cosinor_per_day_fixed_period_7_square_01_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>25.65000000000057</v>
+        <v>25.53000000000055</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>1.725445188949237e-07</v>
+        <v>2.188038064288023e-05</v>
       </c>
       <c r="I2" t="n">
-        <v>1.725445188949237e-07</v>
+        <v>2.188038064288023e-05</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>61.2940079136619</v>
+        <v>51.01341323425243</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[40.17454029306674, 82.41347553425706]</t>
+          <t>[26.986580207706297, 75.04024626079857]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>5.293142226747705e-07</v>
+        <v>9.768260424114494e-05</v>
       </c>
       <c r="O2" t="n">
-        <v>5.293142226747705e-07</v>
+        <v>9.768260424114494e-05</v>
       </c>
       <c r="P2" t="n">
-        <v>1.628973968528041</v>
+        <v>1.427710775505271</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[1.2012896833546556, 2.0566582537014266]</t>
+          <t>[0.8490790955648082, 2.0063424554457336]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>1.041339015017684e-09</v>
+        <v>1.017898345345714e-05</v>
       </c>
       <c r="S2" t="n">
-        <v>1.041339015017684e-09</v>
+        <v>1.017898345345714e-05</v>
       </c>
       <c r="T2" t="n">
-        <v>59.96031348592786</v>
+        <v>61.44117882650684</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[46.49171961777904, 73.42890735407667]</t>
+          <t>[47.237360413505606, 75.64499723950809]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>1.412958638979944e-11</v>
+        <v>3.242983659390575e-11</v>
       </c>
       <c r="W2" t="n">
-        <v>1.412958638979944e-11</v>
+        <v>3.242983659390575e-11</v>
       </c>
       <c r="X2" t="n">
-        <v>19.00000000000042</v>
+        <v>19.72888888888932</v>
       </c>
       <c r="Y2" t="n">
-        <v>17.25405405405444</v>
+        <v>17.37777777777815</v>
       </c>
       <c r="Z2" t="n">
-        <v>20.74594594594641</v>
+        <v>22.08000000000048</v>
       </c>
     </row>
     <row r="3">
@@ -651,7 +651,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>25.65000000000057</v>
+        <v>25.53000000000055</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0004014341337060801</v>
+        <v>0.01451597910654212</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0004014341337060801</v>
+        <v>0.01451597910654212</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>48.07577717778288</v>
+        <v>36.32096945906834</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[19.15966678983395, 76.9918875657318]</t>
+          <t>[3.0945215326467093, 69.54741738548996]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.001649566000748948</v>
+        <v>0.03285610707251752</v>
       </c>
       <c r="O3" t="n">
-        <v>0.001649566000748948</v>
+        <v>0.03285610707251752</v>
       </c>
       <c r="P3" t="n">
-        <v>1.239026532046425</v>
+        <v>0.9245527929483472</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[0.5471843060306547, 1.9308687580621946]</t>
+          <t>[-0.1320789704211931, 1.9811845563178876]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0.0007729581409410269</v>
+        <v>0.08480323047554172</v>
       </c>
       <c r="S3" t="n">
-        <v>0.0007729581409410269</v>
+        <v>0.08480323047554172</v>
       </c>
       <c r="T3" t="n">
-        <v>65.68526379216576</v>
+        <v>72.31265900489345</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[49.61156307209633, 81.75896451223518]</t>
+          <t>[55.445574978901845, 89.17974303088505]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>1.595186205349819e-10</v>
+        <v>4.183653423694977e-11</v>
       </c>
       <c r="W3" t="n">
-        <v>1.595186205349819e-10</v>
+        <v>4.183653423694977e-11</v>
       </c>
       <c r="X3" t="n">
-        <v>20.59189189189235</v>
+        <v>21.77333333333381</v>
       </c>
       <c r="Y3" t="n">
-        <v>17.76756756756797</v>
+        <v>17.48000000000038</v>
       </c>
       <c r="Z3" t="n">
-        <v>23.41621621621674</v>
+        <v>26.06666666666723</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>25.65000000000057</v>
+        <v>25.53000000000055</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0005503476294157483</v>
+        <v>9.110941401324624e-08</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0005503476294157483</v>
+        <v>9.110941401324624e-08</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>48.56690102763248</v>
+        <v>61.6212430007207</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[16.56791309752581, 80.56588895773916]</t>
+          <t>[37.249230856671915, 85.99325514476949]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.003755120077692853</v>
+        <v>6.759108947207437e-06</v>
       </c>
       <c r="O4" t="n">
-        <v>0.003755120077692853</v>
+        <v>6.759108947207437e-06</v>
       </c>
       <c r="P4" t="n">
-        <v>0.7736053981812709</v>
+        <v>1.062921238151501</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[0.1949737182408091, 1.3522370781217328]</t>
+          <t>[0.6478159025420398, 1.478026573760963]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.009918379043219128</v>
+        <v>5.438566047288873e-06</v>
       </c>
       <c r="S4" t="n">
-        <v>0.009918379043219128</v>
+        <v>5.438566047288873e-06</v>
       </c>
       <c r="T4" t="n">
-        <v>59.24815731406017</v>
+        <v>58.57446719357426</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[43.13370901067552, 75.36260561744483]</t>
+          <t>[45.806211533034954, 71.34272285411357]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>2.563619316831023e-09</v>
+        <v>5.830669280726397e-12</v>
       </c>
       <c r="W4" t="n">
-        <v>2.563619316831023e-09</v>
+        <v>5.830669280726397e-12</v>
       </c>
       <c r="X4" t="n">
-        <v>22.49189189189239</v>
+        <v>21.21111111111157</v>
       </c>
       <c r="Y4" t="n">
-        <v>20.12972972973018</v>
+        <v>19.52444444444487</v>
       </c>
       <c r="Z4" t="n">
-        <v>24.8540540540546</v>
+        <v>22.89777777777827</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>25.65000000000057</v>
+        <v>25.53000000000055</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>6.865853916959708e-06</v>
+        <v>9.637898365799646e-05</v>
       </c>
       <c r="I5" t="n">
-        <v>6.865853916959708e-06</v>
+        <v>9.637898365799646e-05</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>54.01918577236902</v>
+        <v>55.12266691326692</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[30.064448053591647, 77.9739234911464]</t>
+          <t>[26.038319611409676, 84.20701421512416]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>4.154991515914475e-05</v>
+        <v>0.0004097944846868096</v>
       </c>
       <c r="O5" t="n">
-        <v>4.154991515914475e-05</v>
+        <v>0.0004097944846868096</v>
       </c>
       <c r="P5" t="n">
-        <v>0.4591316590831935</v>
+        <v>0.3207632138800385</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[-0.03144737390980712, 0.9497106920761942]</t>
+          <t>[-0.27044741562434726, 0.9119738433844242]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.06589800617748121</v>
+        <v>0.2803156601105334</v>
       </c>
       <c r="S5" t="n">
-        <v>0.06589800617748121</v>
+        <v>0.2803156601105334</v>
       </c>
       <c r="T5" t="n">
-        <v>68.51422907107838</v>
+        <v>63.07143460908259</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[55.211541096600634, 81.81691704555612]</t>
+          <t>[47.202581262678606, 78.94028795548657]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>1.62980740014973e-13</v>
+        <v>3.388209712795742e-10</v>
       </c>
       <c r="W5" t="n">
-        <v>1.62980740014973e-13</v>
+        <v>3.388209712795742e-10</v>
       </c>
       <c r="X5" t="n">
-        <v>23.7756756756762</v>
+        <v>24.22666666666719</v>
       </c>
       <c r="Y5" t="n">
-        <v>21.77297297297346</v>
+        <v>21.82444444444492</v>
       </c>
       <c r="Z5" t="n">
-        <v>25.77837837837895</v>
+        <v>26.62888888888947</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>25.65000000000057</v>
+        <v>25.53000000000055</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>6.269233972511223e-06</v>
+        <v>3.886695716914801e-05</v>
       </c>
       <c r="I6" t="n">
-        <v>6.269233972511223e-06</v>
+        <v>3.886695716914801e-05</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>56.36444723531097</v>
+        <v>58.1291187697832</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[33.237171055260475, 79.49172341536146]</t>
+          <t>[29.980214000995645, 86.27802353857076]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>1.246138708665967e-05</v>
+        <v>0.0001416102504343542</v>
       </c>
       <c r="O6" t="n">
-        <v>1.246138708665967e-05</v>
+        <v>0.0001416102504343542</v>
       </c>
       <c r="P6" t="n">
-        <v>0.1195000208572692</v>
+        <v>-0.3018947895341544</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-0.3333421634439624, 0.5723422051585008]</t>
+          <t>[-0.8805264694746171, 0.27673689040630833]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.5976867489866926</v>
+        <v>0.2989443150695212</v>
       </c>
       <c r="S6" t="n">
-        <v>0.5976867489866926</v>
+        <v>0.2989443150695212</v>
       </c>
       <c r="T6" t="n">
-        <v>70.53758820156436</v>
+        <v>72.89468111771926</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[56.733944381649806, 84.34123202147892]</t>
+          <t>[56.76876747503621, 89.0205947604023]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>2.093880624443045e-13</v>
+        <v>9.028111591646848e-12</v>
       </c>
       <c r="W6" t="n">
-        <v>2.093880624443045e-13</v>
+        <v>9.028111591646848e-12</v>
       </c>
       <c r="X6" t="n">
-        <v>25.16216216216272</v>
+        <v>1.226666666666695</v>
       </c>
       <c r="Y6" t="n">
-        <v>23.31351351351403</v>
+        <v>-1.124444444444468</v>
       </c>
       <c r="Z6" t="n">
-        <v>27.01081081081141</v>
+        <v>3.577777777777858</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>25.65000000000057</v>
+        <v>25.53000000000055</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0002606650729047866</v>
+        <v>1.570797723260409e-05</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0002606650729047866</v>
+        <v>1.570797723260409e-05</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>52.84312010433631</v>
+        <v>45.33391573996207</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[21.6244183688446, 84.06182183982801]</t>
+          <t>[23.882653959148897, 66.78517752077524]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.001384233542160329</v>
+        <v>0.000104046484689535</v>
       </c>
       <c r="O7" t="n">
-        <v>0.001384233542160329</v>
+        <v>0.000104046484689535</v>
       </c>
       <c r="P7" t="n">
-        <v>-0.4654211338651546</v>
+        <v>-0.2767368904063083</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-1.0943686120613094, 0.16352634433100022]</t>
+          <t>[-0.792473822527155, 0.23900004171453837]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.1430861536172205</v>
+        <v>0.2855716245292717</v>
       </c>
       <c r="S7" t="n">
-        <v>0.1430861536172205</v>
+        <v>0.2855716245292717</v>
       </c>
       <c r="T7" t="n">
-        <v>64.56890744713847</v>
+        <v>56.56955962450061</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[47.75007084521431, 81.38774404906263]</t>
+          <t>[44.672012429394535, 68.4671068196067]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>8.477660795591646e-10</v>
+        <v>1.981526054350979e-12</v>
       </c>
       <c r="W7" t="n">
-        <v>8.477660795591646e-10</v>
+        <v>1.981526054350979e-12</v>
       </c>
       <c r="X7" t="n">
-        <v>1.900000000000041</v>
+        <v>1.124444444444467</v>
       </c>
       <c r="Y7" t="n">
-        <v>-0.6675675675675836</v>
+        <v>-0.9711111111111324</v>
       </c>
       <c r="Z7" t="n">
-        <v>4.467567567567666</v>
+        <v>3.220000000000067</v>
       </c>
     </row>
     <row r="8">
@@ -1081,7 +1081,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>25.8300000000006</v>
+        <v>25.63000000000057</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.00147592980018918</v>
+        <v>0.001068272320789876</v>
       </c>
       <c r="I8" t="n">
-        <v>0.00147592980018918</v>
+        <v>0.001068272320789876</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>46.0041110321439</v>
+        <v>41.65627797050053</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[14.282453690863036, 77.72576837342477]</t>
+          <t>[13.424084133360225, 69.88847180764084]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.005438269277630026</v>
+        <v>0.004739926026376295</v>
       </c>
       <c r="O8" t="n">
-        <v>0.005438269277630026</v>
+        <v>0.004739926026376295</v>
       </c>
       <c r="P8" t="n">
-        <v>-0.5283158816847697</v>
+        <v>-1.044052813805617</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-1.2453160068283866, 0.18868424345884716]</t>
+          <t>[-1.7484739893853112, -0.33963163822592346]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.1447599590504673</v>
+        <v>0.004570342788194459</v>
       </c>
       <c r="S8" t="n">
-        <v>0.1447599590504673</v>
+        <v>0.004570342788194459</v>
       </c>
       <c r="T8" t="n">
-        <v>70.60781175174131</v>
+        <v>64.05218549258693</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[53.671342438437534, 87.54428106504508]</t>
+          <t>[48.74285669619496, 79.3615142889789]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>9.18567444330165e-11</v>
+        <v>8.317080357755913e-11</v>
       </c>
       <c r="W8" t="n">
-        <v>9.18567444330165e-11</v>
+        <v>8.317080357755913e-11</v>
       </c>
       <c r="X8" t="n">
-        <v>2.171891891891942</v>
+        <v>4.258838838838937</v>
       </c>
       <c r="Y8" t="n">
-        <v>-0.775675675675696</v>
+        <v>1.385405405405438</v>
       </c>
       <c r="Z8" t="n">
-        <v>5.119459459459581</v>
+        <v>7.132272272272436</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>25.8300000000006</v>
+        <v>25.63000000000057</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.002620446759960982</v>
+        <v>4.759315922475693e-07</v>
       </c>
       <c r="I9" t="n">
-        <v>0.002620446759960982</v>
+        <v>4.759315922475693e-07</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>46.70352082680847</v>
+        <v>49.66829826313379</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[11.21843317652629, 82.18860847709065]</t>
+          <t>[30.158725660181986, 69.1778708660856]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.01104375419169523</v>
+        <v>6.008110917443688e-06</v>
       </c>
       <c r="O9" t="n">
-        <v>0.01104375419169523</v>
+        <v>6.008110917443688e-06</v>
       </c>
       <c r="P9" t="n">
-        <v>-1.044052813805617</v>
+        <v>-1.270473905956233</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[-1.8113687372049254, -0.2767368904063092]</t>
+          <t>[-1.7358950398213873, -0.8050527720910781]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.008765952707644686</v>
+        <v>1.725305856403736e-06</v>
       </c>
       <c r="S9" t="n">
-        <v>0.008765952707644686</v>
+        <v>1.725305856403736e-06</v>
       </c>
       <c r="T9" t="n">
-        <v>64.75824925206408</v>
+        <v>58.48217296234853</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[46.06209111567657, 83.45440738845159]</t>
+          <t>[47.016955672579314, 69.94739025211774]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>1.104924418626752e-08</v>
+        <v>2.216005157151812e-13</v>
       </c>
       <c r="W9" t="n">
-        <v>1.104924418626752e-08</v>
+        <v>2.216005157151812e-13</v>
       </c>
       <c r="X9" t="n">
-        <v>4.292072072072173</v>
+        <v>5.182442442442557</v>
       </c>
       <c r="Y9" t="n">
-        <v>1.137657657657689</v>
+        <v>3.283923923923997</v>
       </c>
       <c r="Z9" t="n">
-        <v>7.446486486486657</v>
+        <v>7.080960960961118</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>25.8300000000006</v>
+        <v>25.63000000000057</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>3.746845155250256e-07</v>
+        <v>0.0001571239660933532</v>
       </c>
       <c r="I10" t="n">
-        <v>3.746845155250256e-07</v>
+        <v>0.0001571239660933532</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>58.01419727288999</v>
+        <v>51.21312014377136</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[36.26894501970554, 79.75944952607445]</t>
+          <t>[25.864789880177355, 76.56145040736537]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>2.628820495065298e-06</v>
+        <v>0.0001879254540155806</v>
       </c>
       <c r="O10" t="n">
-        <v>2.628820495065298e-06</v>
+        <v>0.0001879254540155806</v>
       </c>
       <c r="P10" t="n">
-        <v>-1.42142130072331</v>
+        <v>-1.572368695490387</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[-1.8491055858966954, -0.9937370155499243]</t>
+          <t>[-2.239053022378311, -0.9056843686024632]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>2.90178714390521e-08</v>
+        <v>2.102721273722352e-05</v>
       </c>
       <c r="S10" t="n">
-        <v>2.90178714390521e-08</v>
+        <v>2.102721273722352e-05</v>
       </c>
       <c r="T10" t="n">
-        <v>53.06029745944171</v>
+        <v>71.81130177736398</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[39.765950347090794, 66.35464457179263]</t>
+          <t>[55.55291153737642, 88.06969201735154]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>3.028282069550414e-10</v>
+        <v>1.777733515950786e-11</v>
       </c>
       <c r="W10" t="n">
-        <v>3.028282069550414e-10</v>
+        <v>1.777733515950786e-11</v>
       </c>
       <c r="X10" t="n">
-        <v>5.843423423423559</v>
+        <v>6.413913913914055</v>
       </c>
       <c r="Y10" t="n">
-        <v>4.085225225225319</v>
+        <v>3.694414414414496</v>
       </c>
       <c r="Z10" t="n">
-        <v>7.601621621621799</v>
+        <v>9.133413413413614</v>
       </c>
     </row>
     <row r="11">
@@ -1355,69 +1355,69 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>25.8300000000006</v>
+        <v>25.63000000000057</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.03384494813651173</v>
+        <v>5.483903915415311e-07</v>
       </c>
       <c r="I11" t="n">
-        <v>0.03384494813651173</v>
+        <v>5.483903915415311e-07</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>23.30666873605635</v>
+        <v>57.79202803301409</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[1.673048858897758, 44.94028861321494]</t>
+          <t>[34.74484117204938, 80.8392148939788]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.03533578663487158</v>
+        <v>7.774653183245661e-06</v>
       </c>
       <c r="O11" t="n">
-        <v>0.03533578663487158</v>
+        <v>7.774653183245661e-06</v>
       </c>
       <c r="P11" t="n">
-        <v>-1.773631888513156</v>
+        <v>-1.912000333716311</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[-3.107000542289004, -0.44026323473730855]</t>
+          <t>[-2.352263568453619, -1.471737098979002]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>0.01027221178364379</v>
+        <v>2.895017559012558e-11</v>
       </c>
       <c r="S11" t="n">
-        <v>0.01027221178364379</v>
+        <v>2.895017559012558e-11</v>
       </c>
       <c r="T11" t="n">
-        <v>51.38300647005065</v>
+        <v>67.66835734045327</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[38.80202004840677, 63.963992891694524]</t>
+          <t>[54.530495029249835, 80.8062196516567]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>1.6202705843682e-10</v>
+        <v>1.625366508051229e-13</v>
       </c>
       <c r="W11" t="n">
-        <v>1.6202705843682e-10</v>
+        <v>1.625366508051229e-13</v>
       </c>
       <c r="X11" t="n">
-        <v>7.291351351351519</v>
+        <v>7.799319319319491</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.809909909909953</v>
+        <v>6.003423423423554</v>
       </c>
       <c r="Z11" t="n">
-        <v>12.77279279279309</v>
+        <v>9.595215215215427</v>
       </c>
     </row>
     <row r="12">
@@ -1441,69 +1441,69 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>25.8300000000006</v>
+        <v>25.63000000000057</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0004755474722017983</v>
+        <v>0.008159191573251512</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0004755474722017983</v>
+        <v>0.008159191573251512</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>47.72923137970774</v>
+        <v>44.29819952240435</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[16.898474416660335, 78.55998834275515]</t>
+          <t>[9.590856259460239, 79.00554278534845]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>0.00317052415428809</v>
+        <v>0.01352890759406611</v>
       </c>
       <c r="O12" t="n">
-        <v>0.00317052415428809</v>
+        <v>0.01352890759406611</v>
       </c>
       <c r="P12" t="n">
-        <v>-2.352263568453619</v>
+        <v>-2.603842559732081</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[-2.9308952483940818, -1.7736318885131563]</t>
+          <t>[-3.40889533182316, -1.798789787641002]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>1.840192442870148e-10</v>
+        <v>5.36685520469149e-08</v>
       </c>
       <c r="S12" t="n">
-        <v>1.840192442870148e-10</v>
+        <v>5.36685520469149e-08</v>
       </c>
       <c r="T12" t="n">
-        <v>59.89617793180389</v>
+        <v>63.37543903176192</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[44.28405853481361, 75.50829732879417]</t>
+          <t>[44.6831779201092, 82.06770014341464]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>8.626646064158194e-10</v>
+        <v>1.829497819905157e-08</v>
       </c>
       <c r="W12" t="n">
-        <v>8.626646064158194e-10</v>
+        <v>1.829497819905157e-08</v>
       </c>
       <c r="X12" t="n">
-        <v>9.670090090090316</v>
+        <v>10.62144144144168</v>
       </c>
       <c r="Y12" t="n">
-        <v>7.291351351351521</v>
+        <v>7.337517517517677</v>
       </c>
       <c r="Z12" t="n">
-        <v>12.04882882882911</v>
+        <v>13.90536536536568</v>
       </c>
     </row>
     <row r="13">
@@ -1527,69 +1527,69 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>25.8300000000006</v>
+        <v>25.63000000000057</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0.001533953094238982</v>
+        <v>0.002105011938253964</v>
       </c>
       <c r="I13" t="n">
-        <v>0.001533953094238982</v>
+        <v>0.002105011938253964</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>44.22668731936476</v>
+        <v>45.7183391098101</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[15.48771016550782, 72.9656644732217]</t>
+          <t>[14.977446354496578, 76.45923186512361]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>0.003337961168694115</v>
+        <v>0.004444895258579384</v>
       </c>
       <c r="O13" t="n">
-        <v>0.003337961168694115</v>
+        <v>0.004444895258579384</v>
       </c>
       <c r="P13" t="n">
-        <v>-2.729632055371312</v>
+        <v>-2.779947853627004</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[-3.4466321805149276, -2.0126319302276956]</t>
+          <t>[-3.534684827462389, -2.025210879791619]</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>1.054208720319139e-09</v>
+        <v>2.45014497579632e-09</v>
       </c>
       <c r="S13" t="n">
-        <v>1.054208720319139e-09</v>
+        <v>2.45014497579632e-09</v>
       </c>
       <c r="T13" t="n">
-        <v>69.78581453209748</v>
+        <v>58.28362936384223</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[54.134422828051555, 85.4372062361434]</t>
+          <t>[41.56426117635956, 75.00299755132491]</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>1.35047528715404e-11</v>
+        <v>9.479941054379992e-09</v>
       </c>
       <c r="W13" t="n">
-        <v>1.35047528715404e-11</v>
+        <v>9.479941054379992e-09</v>
       </c>
       <c r="X13" t="n">
-        <v>11.2214414414417</v>
+        <v>11.33979979980005</v>
       </c>
       <c r="Y13" t="n">
-        <v>8.273873873874066</v>
+        <v>8.261121121121306</v>
       </c>
       <c r="Z13" t="n">
-        <v>14.16900900900934</v>
+        <v>14.4184784784788</v>
       </c>
     </row>
     <row r="14">
@@ -1613,69 +1613,69 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>25.8300000000006</v>
+        <v>25.63000000000057</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0.001111014688560452</v>
+        <v>0.000536229418489631</v>
       </c>
       <c r="I14" t="n">
-        <v>0.001111014688560452</v>
+        <v>0.000536229418489631</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>43.10029372547545</v>
+        <v>47.76172990906046</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[18.12099398928376, 68.07959346166713]</t>
+          <t>[19.347959986618022, 76.1754998315029]</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>0.001141638123621336</v>
+        <v>0.001482545976803085</v>
       </c>
       <c r="O14" t="n">
-        <v>0.001141638123621336</v>
+        <v>0.001482545976803085</v>
       </c>
       <c r="P14" t="n">
-        <v>3.037816319687427</v>
+        <v>2.912026824048196</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[2.3208161945438106, 3.7548164448310444]</t>
+          <t>[2.232763547596349, 3.5912901005000437]</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>5.844591477455197e-11</v>
+        <v>4.188316360398403e-11</v>
       </c>
       <c r="S14" t="n">
-        <v>5.844591477455197e-11</v>
+        <v>4.188316360398403e-11</v>
       </c>
       <c r="T14" t="n">
-        <v>59.85572443960125</v>
+        <v>58.76356412653495</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[44.85198693981965, 74.85946193938285]</t>
+          <t>[42.97291039014419, 74.55421786292571]</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>3.065359077680796e-10</v>
+        <v>1.88901050357515e-09</v>
       </c>
       <c r="W14" t="n">
-        <v>3.065359077680796e-10</v>
+        <v>1.88901050357515e-09</v>
       </c>
       <c r="X14" t="n">
-        <v>13.34162162162193</v>
+        <v>13.75143143143174</v>
       </c>
       <c r="Y14" t="n">
-        <v>10.39405405405429</v>
+        <v>10.98062062062086</v>
       </c>
       <c r="Z14" t="n">
-        <v>16.28918918918957</v>
+        <v>16.52224224224261</v>
       </c>
     </row>
   </sheetData>
